--- a/New Microsoft Office Excel Worksheet.xlsx
+++ b/New Microsoft Office Excel Worksheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>hiii</t>
   </si>
@@ -25,6 +25,12 @@
   </si>
   <si>
     <t>helo</t>
+  </si>
+  <si>
+    <t>ghh</t>
+  </si>
+  <si>
+    <t>lll</t>
   </si>
 </sst>
 </file>
@@ -356,10 +362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -379,6 +385,16 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
